--- a/biology/Zoologie/Chamaeleo_senegalensis/Chamaeleo_senegalensis.xlsx
+++ b/biology/Zoologie/Chamaeleo_senegalensis/Chamaeleo_senegalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaeleo senegalensis, le Caméléon du Sénégal[1], est une espèce de sauriens de la famille des Chamaeleonidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaeleo senegalensis, le Caméléon du Sénégal, est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La partie arrière du casque aplatie (ce qui le distingue de C. gracilis), son bord postérieur faisant un angle droit ou obtus en vue de profil[3]. La coloration de base est verte, avec une bande latérale blanchâtre en arrière de la base de la patte antérieure. La coloration peut changer rapidement, virant au brun clair ou au gris, ou révélant des bandes verticales foncées qui bifurquent en forme de Y (ceci est très caractéristique) près de la crête dorsale. Il est diurne et se nourrit d’insectes et autres arthropodes qu’il capture en projetant sa langue. Menacé, il cherche à intimider son agresseur en faisant face la bouche ouverte, mais il est totalement inoffensif pour l’Homme et c’est à tort qu’il est souvent localement craint.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie arrière du casque aplatie (ce qui le distingue de C. gracilis), son bord postérieur faisant un angle droit ou obtus en vue de profil. La coloration de base est verte, avec une bande latérale blanchâtre en arrière de la base de la patte antérieure. La coloration peut changer rapidement, virant au brun clair ou au gris, ou révélant des bandes verticales foncées qui bifurquent en forme de Y (ceci est très caractéristique) près de la crête dorsale. Il est diurne et se nourrit d’insectes et autres arthropodes qu’il capture en projetant sa langue. Menacé, il cherche à intimider son agresseur en faisant face la bouche ouverte, mais il est totalement inoffensif pour l’Homme et c’est à tort qu’il est souvent localement craint.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Sénégal, au Mali, en Gambie, en Guinée-Bissau, en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Ghana, au Togo, au Bénin, au Nigeria, au Cameroun et en Centrafrique[2]. On le retrouve dans les savanes soudaniennes et soudano-sahéliennes ; comme il pénètre peu en savanes guinéennes, il est bien plus rare que C. gracilis[3]. C’est un caméléon de zone sèche en somme.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Sénégal, au Mali, en Gambie, en Guinée-Bissau, en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Ghana, au Togo, au Bénin, au Nigeria, au Cameroun et en Centrafrique. On le retrouve dans les savanes soudaniennes et soudano-sahéliennes ; comme il pénètre peu en savanes guinéennes, il est bien plus rare que C. gracilis. C’est un caméléon de zone sèche en somme.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Daudin, 1802 : Histoire Naturelle, Générale et Particulière des Reptiles; ouvrage faisant suit à l'Histoire naturelle générale et particulière, composée par Leclerc de Buffon; et rédigee par C.S. Sonnini, membre de plusieurs sociétés savantes, vol. 4, F. Dufart, Paris, p. 1-397 (texte intégral).</t>
         </is>
